--- a/2020 Report/2020 summary.xlsx
+++ b/2020 Report/2020 summary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Brenton/Documents/Fantasy Football/2020 Report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Brenton/Documents/Fantasy-Football/2020 Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -421,24 +421,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -450,15 +432,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -492,6 +465,33 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -779,7 +779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -795,35 +795,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
     </row>
     <row r="3" spans="2:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="27"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
@@ -842,14 +842,14 @@
         <f>D4/14</f>
         <v>115.23857142857142</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="22"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="41"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
@@ -868,7 +868,7 @@
         <f t="shared" ref="F5:F15" si="0">D5/14</f>
         <v>101.62571428571428</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="34" t="s">
         <v>33</v>
       </c>
       <c r="I5" s="15" t="s">
@@ -898,7 +898,7 @@
         <f t="shared" si="0"/>
         <v>95.289999999999992</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="34" t="s">
         <v>34</v>
       </c>
       <c r="I6" s="14" t="s">
@@ -928,33 +928,33 @@
         <f t="shared" si="0"/>
         <v>113.53571428571429</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="25"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="44"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="27">
         <v>1586.02</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="27">
         <v>1461.2</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="28">
         <f t="shared" si="0"/>
         <v>113.28714285714285</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="35" t="s">
         <v>36</v>
       </c>
       <c r="I8" s="14" t="s">
@@ -980,11 +980,11 @@
       <c r="E9" s="3">
         <v>1313.7</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="20">
         <f t="shared" si="0"/>
         <v>95.348571428571432</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="36" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1001,11 +1001,11 @@
       <c r="E10" s="3">
         <v>1246.3599999999999</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="20">
         <f t="shared" si="0"/>
         <v>98.512857142857143</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="36" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1022,11 +1022,11 @@
       <c r="E11" s="3">
         <v>1506.26</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="20">
         <f t="shared" si="0"/>
         <v>103.85571428571428</v>
       </c>
-      <c r="G11" s="45" t="s">
+      <c r="G11" s="36" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1043,11 +1043,11 @@
       <c r="E12" s="3">
         <v>1445.8</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="20">
         <f t="shared" si="0"/>
         <v>103.08285714285715</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="G12" s="36" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       <c r="E13" s="3">
         <v>1435.24</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="20">
         <f t="shared" si="0"/>
         <v>98.378571428571419</v>
       </c>
-      <c r="G13" s="45" t="s">
+      <c r="G13" s="36" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="31">
         <v>1259.28</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="31">
         <v>1429.74</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="32">
         <f t="shared" si="0"/>
         <v>89.948571428571427</v>
       </c>
-      <c r="G14" s="46" t="s">
+      <c r="G14" s="37" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1110,7 +1110,7 @@
         <f t="shared" si="0"/>
         <v>82.715714285714284</v>
       </c>
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="38" t="s">
         <v>41</v>
       </c>
     </row>
